--- a/OnlineExamManagmentSystem/Documents/class_data.xlsx
+++ b/OnlineExamManagmentSystem/Documents/class_data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="46">
   <si>
     <r>
       <rPr>
@@ -35,6 +35,23 @@
   <si>
     <r>
       <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">Instructor Email: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>sam.thangiah@sru.edu</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <rFont val="Tahoma, Arial"/>
         <b/>
         <color theme="1"/>
@@ -73,7 +90,7 @@
         <b val="0"/>
         <color theme="1"/>
       </rPr>
-      <t>4</t>
+      <t>25</t>
     </r>
   </si>
   <si>
@@ -429,7 +446,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -437,7 +454,13 @@
       <alignment vertical="top"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="top"/>
@@ -700,296 +723,298 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+      <c r="A4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="A5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+      <c r="A6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
     </row>
     <row r="7">
-      <c r="A7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
+      <c r="A7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
     </row>
     <row r="8">
-      <c r="A8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="9" t="s">
+      <c r="A8" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="B8" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="C8" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="D8" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="E8" s="11" t="s">
         <v>11</v>
       </c>
+      <c r="F8" s="11" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="10">
+      <c r="A9" s="12">
         <v>40.0</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="11" t="s">
+      <c r="B9" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="C9" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="D9" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="E9" s="13" t="s">
         <v>16</v>
       </c>
+      <c r="F9" s="13" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="10">
+      <c r="A10" s="12">
         <v>41.0</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="11" t="s">
+      <c r="B10" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="C10" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="D10" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="12">
+        <v>42.0</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="E11" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="12">
+        <v>43.0</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="12">
+        <v>44.0</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="13" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="10">
-        <v>42.0</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="11" t="s">
+      <c r="E13" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="12">
+        <v>45.0</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="10">
-        <v>43.0</v>
-      </c>
-      <c r="B12" s="11" t="s">
+      <c r="E14" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="12">
+        <v>46.0</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="12">
+        <v>47.0</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="12">
+        <v>48.0</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="11" t="s">
+    </row>
+    <row r="18">
+      <c r="A18" s="12">
+        <v>49.0</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="10">
-        <v>44.0</v>
-      </c>
-      <c r="B13" s="11" t="s">
+      <c r="E18" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="10">
-        <v>45.0</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="10">
-        <v>46.0</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="10">
-        <v>47.0</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="10">
-        <v>48.0</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="10">
-        <v>49.0</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="19">
-      <c r="A19" s="10">
+      <c r="A19" s="12">
         <v>50.0</v>
       </c>
-      <c r="B19" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="11" t="s">
+      <c r="B19" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="11" t="s">
+      <c r="C19" s="13" t="s">
         <v>44</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
